--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,49 +40,40 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>died</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>war</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>risk</t>
   </si>
   <si>
     <t>low</t>
@@ -91,184 +82,166 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -635,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,37 +877,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6818181818181818</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6363636363636364</v>
+        <v>0.52</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1054,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>408</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.9</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1154,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4583333333333333</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4285714285714285</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3433476394849785</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8627450980392157</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,543 +1327,447 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>235</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
+        <v>21</v>
+      </c>
+      <c r="M16">
+        <v>21</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7682926829268293</v>
+      </c>
+      <c r="L17">
+        <v>63</v>
+      </c>
+      <c r="M17">
+        <v>63</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L18">
+        <v>88</v>
+      </c>
+      <c r="M18">
+        <v>88</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="L19">
+        <v>104</v>
+      </c>
+      <c r="M19">
+        <v>104</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L16">
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="L21">
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.7</v>
+      </c>
+      <c r="L22">
+        <v>112</v>
+      </c>
+      <c r="M22">
+        <v>112</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L23">
+        <v>73</v>
+      </c>
+      <c r="M23">
+        <v>73</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L24">
+        <v>31</v>
+      </c>
+      <c r="M24">
+        <v>31</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L26">
         <v>23</v>
       </c>
-      <c r="M16">
+      <c r="M26">
         <v>23</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C17">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>63</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L17">
-        <v>46</v>
-      </c>
-      <c r="M17">
-        <v>46</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2625</v>
-      </c>
-      <c r="C18">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L27">
+        <v>17</v>
+      </c>
+      <c r="M27">
+        <v>17</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.6031746031746031</v>
+      </c>
+      <c r="L28">
+        <v>38</v>
+      </c>
+      <c r="M28">
+        <v>38</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L29">
+        <v>55</v>
+      </c>
+      <c r="M29">
+        <v>55</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.58</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>21</v>
       </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>59</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
-      <c r="M18">
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>102</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.03763440860215054</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>179</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.8125</v>
-      </c>
-      <c r="L21">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <v>13</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L22">
-        <v>45</v>
-      </c>
-      <c r="M22">
-        <v>45</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L24">
-        <v>38</v>
-      </c>
-      <c r="M24">
-        <v>38</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L25">
-        <v>43</v>
-      </c>
-      <c r="M25">
-        <v>43</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L26">
-        <v>28</v>
-      </c>
-      <c r="M26">
-        <v>28</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L27">
-        <v>12</v>
-      </c>
-      <c r="M27">
-        <v>12</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K28">
-        <v>0.7</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
-      </c>
-      <c r="M29">
-        <v>18</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L31">
-        <v>49</v>
-      </c>
-      <c r="M31">
-        <v>49</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
         <v>16</v>
@@ -1908,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.64</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1934,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6153846153846154</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1960,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1986,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.5833333333333334</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2012,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.5821596244131455</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L37">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="M37">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2038,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>89</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.5600000000000001</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2064,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5454545454545454</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2090,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5294117647058824</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2116,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.5263157894736842</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2142,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.5151515151515151</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2168,21 +2045,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5069444444444444</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L43">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2194,21 +2071,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2220,21 +2097,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2246,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2272,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.4673913043478261</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2298,21 +2175,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.4418604651162791</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2324,21 +2201,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.4285714285714285</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2350,21 +2227,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.4</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2376,21 +2253,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.4</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="L51">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2402,21 +2279,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.35</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2428,21 +2305,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>13</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.3421052631578947</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2454,47 +2331,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>871</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.3243243243243243</v>
+        <v>0.02311248073959938</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>634</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.2916666666666667</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2506,215 +2383,85 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.25</v>
+        <v>0.01261682242990654</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.04040404040404041</v>
+        <v>0.01095713825330326</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>190</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.03902439024390244</v>
+        <v>0.006259780907668232</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="L59">
-        <v>12</v>
-      </c>
-      <c r="M59">
-        <v>12</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K60">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="L60">
-        <v>7</v>
-      </c>
-      <c r="M60">
-        <v>7</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K61">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="L61">
-        <v>8</v>
-      </c>
-      <c r="M61">
-        <v>11</v>
-      </c>
-      <c r="N61">
-        <v>0.73</v>
-      </c>
-      <c r="O61">
-        <v>0.27</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K62">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="L62">
-        <v>8</v>
-      </c>
-      <c r="M62">
-        <v>12</v>
-      </c>
-      <c r="N62">
-        <v>0.67</v>
-      </c>
-      <c r="O62">
-        <v>0.33</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K63">
-        <v>0.005018820577164366</v>
-      </c>
-      <c r="L63">
-        <v>8</v>
-      </c>
-      <c r="M63">
-        <v>11</v>
-      </c>
-      <c r="N63">
-        <v>0.73</v>
-      </c>
-      <c r="O63">
-        <v>0.27</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1586</v>
+        <v>3175</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
@@ -70,12 +73,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -85,139 +82,139 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>friends</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>ensure</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>well</t>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>dear</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
   <si>
     <t>share</t>
@@ -616,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>33</v>
@@ -677,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -695,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.9444444444444444</v>
@@ -777,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7058823529411765</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,16 +795,16 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6551724137931034</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6111111111111112</v>
+        <v>0.6164383561643836</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5958904109589042</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,37 +974,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.52</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>13</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2941176470588235</v>
+        <v>0.28</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2093023255813954</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8461538461538461</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2063492063492063</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1866666666666667</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1688311688311688</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1409395973154362</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,69 +1292,45 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <v>29</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L15">
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.06746031746031746</v>
-      </c>
-      <c r="C16">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>235</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7682926829268293</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L17">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7333333333333333</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L18">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="M18">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.7323943661971831</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1447,15 +1420,15 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L20">
         <v>17</v>
@@ -1473,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7058823529411765</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1499,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="M22">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1525,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6886792452830188</v>
+        <v>0.6875</v>
       </c>
       <c r="L23">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="M23">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1551,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6595744680851063</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1577,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6521739130434783</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1603,12 +1576,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>0.6388888888888888</v>
@@ -1634,16 +1607,16 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6071428571428571</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1655,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6031746031746031</v>
+        <v>0.62</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1681,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5851063829787234</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L29">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M29">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1707,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1733,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.58</v>
+        <v>0.5483028720626631</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1759,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1785,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1811,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5416666666666666</v>
+        <v>0.475</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1837,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.5333333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1863,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.5195822454308094</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1889,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4735294117647059</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L37">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1915,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.464406779661017</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1941,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4642857142857143</v>
+        <v>0.464406779661017</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1967,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.4382022471910113</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1993,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2019,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.4</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2045,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3974358974358974</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2071,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.3972602739726027</v>
+        <v>0.4</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2097,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.3714285714285714</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2123,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2149,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.3430962343096234</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2175,12 +2148,12 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>157</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K48">
         <v>0.2857142857142857</v>
@@ -2206,7 +2179,7 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K49">
         <v>0.1068702290076336</v>
@@ -2232,16 +2205,16 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.04086538461538462</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2253,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.04026845637583892</v>
+        <v>0.04138702460850112</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2279,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.03827751196172249</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2305,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.03329633740288569</v>
+        <v>0.03107658157602664</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2331,137 +2304,137 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.02311248073959938</v>
+        <v>0.02157164869029276</v>
       </c>
       <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
         <v>15</v>
       </c>
-      <c r="M54">
-        <v>16</v>
-      </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.01614763552479815</v>
+        <v>0.01963048498845266</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.01261682242990654</v>
+        <v>0.01448598130841122</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N56">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O56">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2113</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.01095713825330326</v>
+        <v>0.008690054715159318</v>
       </c>
       <c r="L57">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N57">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3069</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K58">
-        <v>0.006259780907668232</v>
+        <v>0.005314160675211003</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N58">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="O58">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3175</v>
+        <v>3182</v>
       </c>
     </row>
   </sheetData>
